--- a/data/pca/factorExposure/factorExposure_2011-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01059916864504245</v>
+        <v>-0.01140662916297021</v>
       </c>
       <c r="C2">
-        <v>-0.03101843278972835</v>
+        <v>0.02550088311252845</v>
       </c>
       <c r="D2">
-        <v>-0.02128910267323953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02379713113380379</v>
+      </c>
+      <c r="E2">
+        <v>0.007180018478837947</v>
+      </c>
+      <c r="F2">
+        <v>-0.02736999262435263</v>
+      </c>
+      <c r="G2">
+        <v>-0.0008034556773446285</v>
+      </c>
+      <c r="H2">
+        <v>-0.02581535844013576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07473603351018507</v>
+        <v>-0.08720755909302785</v>
       </c>
       <c r="C4">
-        <v>-0.05221561848624092</v>
+        <v>0.03548566437523342</v>
       </c>
       <c r="D4">
-        <v>-0.08125126647638808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07091297089160785</v>
+      </c>
+      <c r="E4">
+        <v>0.00730096040756701</v>
+      </c>
+      <c r="F4">
+        <v>-0.03928592099860747</v>
+      </c>
+      <c r="G4">
+        <v>0.01708431641728142</v>
+      </c>
+      <c r="H4">
+        <v>0.04169544492039787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1108296141699458</v>
+        <v>-0.1237391866702642</v>
       </c>
       <c r="C6">
-        <v>-0.0513783591094637</v>
+        <v>0.03708870289383677</v>
       </c>
       <c r="D6">
-        <v>-0.002122934446852109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009126081801686432</v>
+      </c>
+      <c r="E6">
+        <v>-0.02795117175466057</v>
+      </c>
+      <c r="F6">
+        <v>-0.05129566659841738</v>
+      </c>
+      <c r="G6">
+        <v>0.02874322244240228</v>
+      </c>
+      <c r="H6">
+        <v>-0.1231308738998703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05573049863381171</v>
+        <v>-0.06446273634811063</v>
       </c>
       <c r="C7">
-        <v>-0.03112603839820964</v>
+        <v>0.01621965788853114</v>
       </c>
       <c r="D7">
-        <v>-0.03052607401471844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05007215784632143</v>
+      </c>
+      <c r="E7">
+        <v>0.03128925228947044</v>
+      </c>
+      <c r="F7">
+        <v>-0.04035889074560655</v>
+      </c>
+      <c r="G7">
+        <v>-0.03312063248768905</v>
+      </c>
+      <c r="H7">
+        <v>0.01858301950428559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03907485626156101</v>
+        <v>-0.04234718502249139</v>
       </c>
       <c r="C8">
-        <v>-0.01263238211373925</v>
+        <v>0.008893536619928335</v>
       </c>
       <c r="D8">
-        <v>-0.06191522398096266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02469441680198821</v>
+      </c>
+      <c r="E8">
+        <v>0.01278486984093679</v>
+      </c>
+      <c r="F8">
+        <v>-0.06471987444442041</v>
+      </c>
+      <c r="G8">
+        <v>0.07273947949703055</v>
+      </c>
+      <c r="H8">
+        <v>-0.01885504710976994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07091290980229184</v>
+        <v>-0.08014910182986941</v>
       </c>
       <c r="C9">
-        <v>-0.039262577708118</v>
+        <v>0.02351395578672696</v>
       </c>
       <c r="D9">
-        <v>-0.07152171687731364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0633338588431205</v>
+      </c>
+      <c r="E9">
+        <v>0.02361894525770884</v>
+      </c>
+      <c r="F9">
+        <v>-0.0334635567897645</v>
+      </c>
+      <c r="G9">
+        <v>0.03115635611475068</v>
+      </c>
+      <c r="H9">
+        <v>0.04410540002665266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02991490604999961</v>
+        <v>-0.04489865545618332</v>
       </c>
       <c r="C10">
-        <v>-0.02441531197833609</v>
+        <v>0.05612682294464114</v>
       </c>
       <c r="D10">
-        <v>0.1756215512927854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1767665565073549</v>
+      </c>
+      <c r="E10">
+        <v>0.03995328699741359</v>
+      </c>
+      <c r="F10">
+        <v>-0.05150600118351011</v>
+      </c>
+      <c r="G10">
+        <v>-0.03228995231362568</v>
+      </c>
+      <c r="H10">
+        <v>-0.0559327888285848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07171716671390446</v>
+        <v>-0.07578140084921801</v>
       </c>
       <c r="C11">
-        <v>-0.04339704488560747</v>
+        <v>0.02136295815513259</v>
       </c>
       <c r="D11">
-        <v>-0.05234210808688842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06549895448302914</v>
+      </c>
+      <c r="E11">
+        <v>-0.004108555138684183</v>
+      </c>
+      <c r="F11">
+        <v>-0.03027749999892113</v>
+      </c>
+      <c r="G11">
+        <v>0.04376205640407847</v>
+      </c>
+      <c r="H11">
+        <v>0.06938242912188218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06056770300588947</v>
+        <v>-0.06936674221452173</v>
       </c>
       <c r="C12">
-        <v>-0.05156381789586263</v>
+        <v>0.03308463277686587</v>
       </c>
       <c r="D12">
-        <v>-0.04384841657495125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05040213076626658</v>
+      </c>
+      <c r="E12">
+        <v>0.011768126757547</v>
+      </c>
+      <c r="F12">
+        <v>-0.02283676897880244</v>
+      </c>
+      <c r="G12">
+        <v>0.02556298615047843</v>
+      </c>
+      <c r="H12">
+        <v>0.03277069210630757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06848509630599363</v>
+        <v>-0.06776228241789113</v>
       </c>
       <c r="C13">
-        <v>-0.03460775555232078</v>
+        <v>0.01681576173319897</v>
       </c>
       <c r="D13">
-        <v>-0.04033170591604487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0372502992235063</v>
+      </c>
+      <c r="E13">
+        <v>0.006574222168548812</v>
+      </c>
+      <c r="F13">
+        <v>-0.02813521430733807</v>
+      </c>
+      <c r="G13">
+        <v>0.02679539050025397</v>
+      </c>
+      <c r="H13">
+        <v>0.04564666260547055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03389571488356712</v>
+        <v>-0.04058765745280603</v>
       </c>
       <c r="C14">
-        <v>-0.0349735538066124</v>
+        <v>0.0294427914666122</v>
       </c>
       <c r="D14">
-        <v>0.01065613387031443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01299163367852313</v>
+      </c>
+      <c r="E14">
+        <v>0.02652717332601357</v>
+      </c>
+      <c r="F14">
+        <v>-0.0169225409257179</v>
+      </c>
+      <c r="G14">
+        <v>0.0244113954824025</v>
+      </c>
+      <c r="H14">
+        <v>0.05450716278365958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04256747374036155</v>
+        <v>-0.04108064793358545</v>
       </c>
       <c r="C15">
-        <v>-0.01013941742881524</v>
+        <v>0.00293056337108627</v>
       </c>
       <c r="D15">
-        <v>-0.01871335114548058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007340111270651224</v>
+      </c>
+      <c r="E15">
+        <v>0.0371867242916449</v>
+      </c>
+      <c r="F15">
+        <v>-0.002375223578866633</v>
+      </c>
+      <c r="G15">
+        <v>0.03439626995287974</v>
+      </c>
+      <c r="H15">
+        <v>0.02317402434842655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06104788334171476</v>
+        <v>-0.07117830829622088</v>
       </c>
       <c r="C16">
-        <v>-0.04082724211808449</v>
+        <v>0.02410004487341754</v>
       </c>
       <c r="D16">
-        <v>-0.04931592948374078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0633788732202918</v>
+      </c>
+      <c r="E16">
+        <v>0.006329379558147313</v>
+      </c>
+      <c r="F16">
+        <v>-0.02923801841883634</v>
+      </c>
+      <c r="G16">
+        <v>0.02502011319342963</v>
+      </c>
+      <c r="H16">
+        <v>0.05264049762820086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06417632338789553</v>
+        <v>-0.06301497921198329</v>
       </c>
       <c r="C20">
-        <v>-0.02693434559017434</v>
+        <v>0.008386908947202024</v>
       </c>
       <c r="D20">
-        <v>-0.04765102762970028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04074016646040002</v>
+      </c>
+      <c r="E20">
+        <v>0.008781276313038596</v>
+      </c>
+      <c r="F20">
+        <v>-0.02993798943816977</v>
+      </c>
+      <c r="G20">
+        <v>0.02430211351356443</v>
+      </c>
+      <c r="H20">
+        <v>0.04595603189706437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02933487934222926</v>
+        <v>-0.02753580118288565</v>
       </c>
       <c r="C21">
-        <v>-0.002256019253630602</v>
+        <v>-0.006774996672065637</v>
       </c>
       <c r="D21">
-        <v>-0.01815466488463174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02184121822637446</v>
+      </c>
+      <c r="E21">
+        <v>0.04048893028538873</v>
+      </c>
+      <c r="F21">
+        <v>0.01501928528414246</v>
+      </c>
+      <c r="G21">
+        <v>0.00833310736434802</v>
+      </c>
+      <c r="H21">
+        <v>-0.04709573080765774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07971200373980339</v>
+        <v>-0.070582760599485</v>
       </c>
       <c r="C22">
-        <v>-0.05959908947127017</v>
+        <v>0.02964625953798702</v>
       </c>
       <c r="D22">
-        <v>-0.1455565366770395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1046789908500938</v>
+      </c>
+      <c r="E22">
+        <v>0.6107540787530221</v>
+      </c>
+      <c r="F22">
+        <v>0.06297896232047355</v>
+      </c>
+      <c r="G22">
+        <v>-0.1724182869307311</v>
+      </c>
+      <c r="H22">
+        <v>-0.1377359897277932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0807270180182342</v>
+        <v>-0.07148431974334786</v>
       </c>
       <c r="C23">
-        <v>-0.05810696901974412</v>
+        <v>0.02814313026436384</v>
       </c>
       <c r="D23">
-        <v>-0.1468244238428881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1057527099878356</v>
+      </c>
+      <c r="E23">
+        <v>0.6128159053248471</v>
+      </c>
+      <c r="F23">
+        <v>0.06231982521005974</v>
+      </c>
+      <c r="G23">
+        <v>-0.166387682060716</v>
+      </c>
+      <c r="H23">
+        <v>-0.1336641149644319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0769801887968304</v>
+        <v>-0.08106397196073817</v>
       </c>
       <c r="C24">
-        <v>-0.0533979863593619</v>
+        <v>0.03050163191267802</v>
       </c>
       <c r="D24">
-        <v>-0.05612741445547284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0632294428862885</v>
+      </c>
+      <c r="E24">
+        <v>0.01098265567502693</v>
+      </c>
+      <c r="F24">
+        <v>-0.03766608003352811</v>
+      </c>
+      <c r="G24">
+        <v>0.0391672878062297</v>
+      </c>
+      <c r="H24">
+        <v>0.03541207981011132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07517232357655682</v>
+        <v>-0.07940444853361145</v>
       </c>
       <c r="C25">
-        <v>-0.0546132080652272</v>
+        <v>0.03355375241692523</v>
       </c>
       <c r="D25">
-        <v>-0.05727409002021219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05226104661979487</v>
+      </c>
+      <c r="E25">
+        <v>0.01907250013092924</v>
+      </c>
+      <c r="F25">
+        <v>-0.03394880607713065</v>
+      </c>
+      <c r="G25">
+        <v>0.04953007857406282</v>
+      </c>
+      <c r="H25">
+        <v>0.03911893568654103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04632564403091533</v>
+        <v>-0.04532232065017922</v>
       </c>
       <c r="C26">
-        <v>-0.01383884596655361</v>
+        <v>0.003047217144158082</v>
       </c>
       <c r="D26">
-        <v>-0.009781676776451304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02019544654911079</v>
+      </c>
+      <c r="E26">
+        <v>0.0404816073597845</v>
+      </c>
+      <c r="F26">
+        <v>-0.03398912736190191</v>
+      </c>
+      <c r="G26">
+        <v>0.01670831070308235</v>
+      </c>
+      <c r="H26">
+        <v>0.04681235061710003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04735091608395624</v>
+        <v>-0.07011324580840808</v>
       </c>
       <c r="C28">
-        <v>-0.06970185666936127</v>
+        <v>0.114603497064983</v>
       </c>
       <c r="D28">
-        <v>0.3037089181032442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2969524814978545</v>
+      </c>
+      <c r="E28">
+        <v>0.03649663168513717</v>
+      </c>
+      <c r="F28">
+        <v>-0.05683753006972067</v>
+      </c>
+      <c r="G28">
+        <v>0.0206413303729961</v>
+      </c>
+      <c r="H28">
+        <v>-0.04877536292103743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04548294177617974</v>
+        <v>-0.0475157460409343</v>
       </c>
       <c r="C29">
-        <v>-0.03128946784175952</v>
+        <v>0.02298550223923249</v>
       </c>
       <c r="D29">
-        <v>-0.002144641403344967</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01276488851416924</v>
+      </c>
+      <c r="E29">
+        <v>0.05779759211427458</v>
+      </c>
+      <c r="F29">
+        <v>-0.0132785901009937</v>
+      </c>
+      <c r="G29">
+        <v>0.01125327273901605</v>
+      </c>
+      <c r="H29">
+        <v>0.06946265653322366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1293078063309314</v>
+        <v>-0.1277843249185933</v>
       </c>
       <c r="C30">
-        <v>-0.09031917774564398</v>
+        <v>0.05691705053924125</v>
       </c>
       <c r="D30">
-        <v>-0.1143735444562126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08170383162182178</v>
+      </c>
+      <c r="E30">
+        <v>0.05385103029761312</v>
+      </c>
+      <c r="F30">
+        <v>-0.01421225638550892</v>
+      </c>
+      <c r="G30">
+        <v>0.0647460145048009</v>
+      </c>
+      <c r="H30">
+        <v>-0.03657888335637351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04818960439885893</v>
+        <v>-0.04891994856067776</v>
       </c>
       <c r="C31">
-        <v>-0.0224957473719656</v>
+        <v>0.009099355213148603</v>
       </c>
       <c r="D31">
-        <v>-0.02001474068872802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03479219950739029</v>
+      </c>
+      <c r="E31">
+        <v>0.02474730432676821</v>
+      </c>
+      <c r="F31">
+        <v>-0.007917002118644167</v>
+      </c>
+      <c r="G31">
+        <v>0.00105144319745677</v>
+      </c>
+      <c r="H31">
+        <v>0.07047359755743471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03631858893350731</v>
+        <v>-0.03913096293371464</v>
       </c>
       <c r="C32">
-        <v>-0.02274207818169516</v>
+        <v>0.02144026601842431</v>
       </c>
       <c r="D32">
-        <v>-0.02782218552710678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01105589051451203</v>
+      </c>
+      <c r="E32">
+        <v>0.05306112562364096</v>
+      </c>
+      <c r="F32">
+        <v>0.005698070584357901</v>
+      </c>
+      <c r="G32">
+        <v>0.03552072442226581</v>
+      </c>
+      <c r="H32">
+        <v>0.02689042268698297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08671015628032994</v>
+        <v>-0.09466733532970767</v>
       </c>
       <c r="C33">
-        <v>-0.04574326256267205</v>
+        <v>0.02443074245376598</v>
       </c>
       <c r="D33">
-        <v>-0.0469149281482269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04889395005166049</v>
+      </c>
+      <c r="E33">
+        <v>0.01467982727244345</v>
+      </c>
+      <c r="F33">
+        <v>-0.004323058068003658</v>
+      </c>
+      <c r="G33">
+        <v>0.01638790951745411</v>
+      </c>
+      <c r="H33">
+        <v>0.06592508996996065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05944496691909069</v>
+        <v>-0.06399693809478967</v>
       </c>
       <c r="C34">
-        <v>-0.02428032765679253</v>
+        <v>0.007144926110311985</v>
       </c>
       <c r="D34">
-        <v>-0.05060960430172766</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04931086051606699</v>
+      </c>
+      <c r="E34">
+        <v>0.007148098628870994</v>
+      </c>
+      <c r="F34">
+        <v>-0.02418891304084425</v>
+      </c>
+      <c r="G34">
+        <v>0.03031759504191572</v>
+      </c>
+      <c r="H34">
+        <v>0.04629518293174525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03699496548956834</v>
+        <v>-0.03829202328210474</v>
       </c>
       <c r="C35">
-        <v>-0.01076025568343443</v>
+        <v>0.004224428670962603</v>
       </c>
       <c r="D35">
-        <v>-0.01929609149952024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01625118505026574</v>
+      </c>
+      <c r="E35">
+        <v>0.02345134556920574</v>
+      </c>
+      <c r="F35">
+        <v>0.01729421174650279</v>
+      </c>
+      <c r="G35">
+        <v>-0.003813099509665956</v>
+      </c>
+      <c r="H35">
+        <v>0.03362475355827133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02499817824994803</v>
+        <v>-0.02915371336212876</v>
       </c>
       <c r="C36">
-        <v>-0.02051145950466448</v>
+        <v>0.01562354645791647</v>
       </c>
       <c r="D36">
-        <v>-0.01843737419434339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01766685311828962</v>
+      </c>
+      <c r="E36">
+        <v>0.03034171135708073</v>
+      </c>
+      <c r="F36">
+        <v>-0.03019367060440708</v>
+      </c>
+      <c r="G36">
+        <v>0.007149700230234746</v>
+      </c>
+      <c r="H36">
+        <v>0.04894644782331858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04545107780764227</v>
+        <v>-0.04656008512669976</v>
       </c>
       <c r="C38">
-        <v>-0.004469070598238801</v>
+        <v>-0.003221776132870206</v>
       </c>
       <c r="D38">
-        <v>-0.01633560617260642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01829605560262425</v>
+      </c>
+      <c r="E38">
+        <v>0.05038806772130335</v>
+      </c>
+      <c r="F38">
+        <v>0.001360698954310224</v>
+      </c>
+      <c r="G38">
+        <v>0.005588561932492124</v>
+      </c>
+      <c r="H38">
+        <v>0.02151623733082823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09021575268290578</v>
+        <v>-0.09994149987361811</v>
       </c>
       <c r="C39">
-        <v>-0.06587689360072135</v>
+        <v>0.04261138264374058</v>
       </c>
       <c r="D39">
-        <v>-0.06289205281340146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06982935285612604</v>
+      </c>
+      <c r="E39">
+        <v>-0.001074539568462858</v>
+      </c>
+      <c r="F39">
+        <v>-0.001309936676996852</v>
+      </c>
+      <c r="G39">
+        <v>0.04820547668023537</v>
+      </c>
+      <c r="H39">
+        <v>0.02460914185022932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08089147511779098</v>
+        <v>-0.06273258504943018</v>
       </c>
       <c r="C40">
-        <v>-0.0361261010459001</v>
+        <v>0.004406381896033916</v>
       </c>
       <c r="D40">
-        <v>-0.01331852395936502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03434846883674594</v>
+      </c>
+      <c r="E40">
+        <v>0.03397396889703243</v>
+      </c>
+      <c r="F40">
+        <v>0.03592862844757241</v>
+      </c>
+      <c r="G40">
+        <v>0.04927378116393501</v>
+      </c>
+      <c r="H40">
+        <v>-0.0779965113252301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04517792851145831</v>
+        <v>-0.0466193032999356</v>
       </c>
       <c r="C41">
-        <v>-0.01136751621404257</v>
+        <v>-0.000369617833789391</v>
       </c>
       <c r="D41">
-        <v>-0.03530288504673718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03158527775712449</v>
+      </c>
+      <c r="E41">
+        <v>0.004228620083508473</v>
+      </c>
+      <c r="F41">
+        <v>0.01460431534675665</v>
+      </c>
+      <c r="G41">
+        <v>0.01047304005121585</v>
+      </c>
+      <c r="H41">
+        <v>0.0274540366066692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05409181297319583</v>
+        <v>-0.06057038232352887</v>
       </c>
       <c r="C43">
-        <v>-0.02774670055249142</v>
+        <v>0.01658094440320943</v>
       </c>
       <c r="D43">
-        <v>-0.01158617994997532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02822198004233339</v>
+      </c>
+      <c r="E43">
+        <v>0.02272060198646391</v>
+      </c>
+      <c r="F43">
+        <v>-0.01630189729827883</v>
+      </c>
+      <c r="G43">
+        <v>-0.006386443245827047</v>
+      </c>
+      <c r="H43">
+        <v>0.06397781891516341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09635425021362949</v>
+        <v>-0.09314397642639606</v>
       </c>
       <c r="C44">
-        <v>-0.08313708418382271</v>
+        <v>0.05210454494701969</v>
       </c>
       <c r="D44">
-        <v>-0.07768254902972685</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07378356255228424</v>
+      </c>
+      <c r="E44">
+        <v>0.05855879600289803</v>
+      </c>
+      <c r="F44">
+        <v>-0.09301181799960463</v>
+      </c>
+      <c r="G44">
+        <v>0.07055884209219981</v>
+      </c>
+      <c r="H44">
+        <v>0.08015245976718467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02740050613362293</v>
+        <v>-0.03549665396884277</v>
       </c>
       <c r="C46">
-        <v>-0.01868736928470669</v>
+        <v>0.01267318113225337</v>
       </c>
       <c r="D46">
-        <v>-0.03054268933768911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03600403952169116</v>
+      </c>
+      <c r="E46">
+        <v>0.03247761091145326</v>
+      </c>
+      <c r="F46">
+        <v>-0.01501704058070927</v>
+      </c>
+      <c r="G46">
+        <v>0.003121834546791344</v>
+      </c>
+      <c r="H46">
+        <v>0.02147105794752834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03614738827921291</v>
+        <v>-0.04196127722612406</v>
       </c>
       <c r="C47">
-        <v>-0.02583406401768734</v>
+        <v>0.02021093513315625</v>
       </c>
       <c r="D47">
-        <v>0.002537915344484257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006247317497714338</v>
+      </c>
+      <c r="E47">
+        <v>0.03977448982763966</v>
+      </c>
+      <c r="F47">
+        <v>0.01008455494928031</v>
+      </c>
+      <c r="G47">
+        <v>-0.03130228772678714</v>
+      </c>
+      <c r="H47">
+        <v>0.0279572623013971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03656912610757282</v>
+        <v>-0.03984066215706562</v>
       </c>
       <c r="C48">
-        <v>-0.02244587493666179</v>
+        <v>0.0133983295805858</v>
       </c>
       <c r="D48">
-        <v>-0.02947301490675143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02061204409733422</v>
+      </c>
+      <c r="E48">
+        <v>0.03871134873770914</v>
+      </c>
+      <c r="F48">
+        <v>-0.0117129345073555</v>
+      </c>
+      <c r="G48">
+        <v>0.01874626206541281</v>
+      </c>
+      <c r="H48">
+        <v>0.02723646990911355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.16295537032111</v>
+        <v>-0.1986191411694476</v>
       </c>
       <c r="C49">
-        <v>-0.04949073068884789</v>
+        <v>0.03287835191603293</v>
       </c>
       <c r="D49">
-        <v>-0.003702579726227899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02491436586759449</v>
+      </c>
+      <c r="E49">
+        <v>-0.1674258828421415</v>
+      </c>
+      <c r="F49">
+        <v>-0.03922143516834804</v>
+      </c>
+      <c r="G49">
+        <v>-0.1617526173109217</v>
+      </c>
+      <c r="H49">
+        <v>-0.220064967472678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04283960774759338</v>
+        <v>-0.04542878106025811</v>
       </c>
       <c r="C50">
-        <v>-0.02493905604774773</v>
+        <v>0.01343066018567085</v>
       </c>
       <c r="D50">
-        <v>-0.03663093360850992</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0398368631639986</v>
+      </c>
+      <c r="E50">
+        <v>0.03680715824530494</v>
+      </c>
+      <c r="F50">
+        <v>-0.005528361492246702</v>
+      </c>
+      <c r="G50">
+        <v>0.004664876178662117</v>
+      </c>
+      <c r="H50">
+        <v>0.07948445360276324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02936558219704569</v>
+        <v>-0.0349603264893258</v>
       </c>
       <c r="C51">
-        <v>-0.01176875348821676</v>
+        <v>0.007025403661471719</v>
       </c>
       <c r="D51">
-        <v>0.002073948525814238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002847049468985149</v>
+      </c>
+      <c r="E51">
+        <v>0.01082303675024107</v>
+      </c>
+      <c r="F51">
+        <v>-0.01016670264241771</v>
+      </c>
+      <c r="G51">
+        <v>-0.01351152502997883</v>
+      </c>
+      <c r="H51">
+        <v>-0.01847358220936475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1550444179185144</v>
+        <v>-0.160298953193195</v>
       </c>
       <c r="C53">
-        <v>-0.07343174898359751</v>
+        <v>0.04477149362061292</v>
       </c>
       <c r="D53">
-        <v>0.003275982157915518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0269915666227542</v>
+      </c>
+      <c r="E53">
+        <v>-0.03164775570925887</v>
+      </c>
+      <c r="F53">
+        <v>0.0006253236747278623</v>
+      </c>
+      <c r="G53">
+        <v>0.02660016804390115</v>
+      </c>
+      <c r="H53">
+        <v>0.1974739176731776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05773335259594724</v>
+        <v>-0.05790967954530411</v>
       </c>
       <c r="C54">
-        <v>-0.02214604248782075</v>
+        <v>0.01197189124942971</v>
       </c>
       <c r="D54">
-        <v>-0.01641063564401856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0151682330662262</v>
+      </c>
+      <c r="E54">
+        <v>0.05270518381010678</v>
+      </c>
+      <c r="F54">
+        <v>-0.01255610230900226</v>
+      </c>
+      <c r="G54">
+        <v>0.05758107860159685</v>
+      </c>
+      <c r="H54">
+        <v>0.03591238147963059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1027611203240608</v>
+        <v>-0.1038018377255753</v>
       </c>
       <c r="C55">
-        <v>-0.05296447027331182</v>
+        <v>0.03157681812150524</v>
       </c>
       <c r="D55">
-        <v>-0.01543819449354828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03041780462031377</v>
+      </c>
+      <c r="E55">
+        <v>0.002925345336405578</v>
+      </c>
+      <c r="F55">
+        <v>-0.0138015526328874</v>
+      </c>
+      <c r="G55">
+        <v>0.03032859809796928</v>
+      </c>
+      <c r="H55">
+        <v>0.1574838890683191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1507894946659234</v>
+        <v>-0.1570183628323158</v>
       </c>
       <c r="C56">
-        <v>-0.08145192409975431</v>
+        <v>0.04950954266438925</v>
       </c>
       <c r="D56">
-        <v>-0.001472706888436183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04109502318457198</v>
+      </c>
+      <c r="E56">
+        <v>-0.01319008568981059</v>
+      </c>
+      <c r="F56">
+        <v>-0.02328135151435365</v>
+      </c>
+      <c r="G56">
+        <v>0.03044635270240044</v>
+      </c>
+      <c r="H56">
+        <v>0.1989798428119849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1326707483013432</v>
+        <v>-0.1007413468697848</v>
       </c>
       <c r="C58">
-        <v>0.009836429417265063</v>
+        <v>-0.05271378596031439</v>
       </c>
       <c r="D58">
-        <v>-0.0470036837715733</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03199764341098856</v>
+      </c>
+      <c r="E58">
+        <v>0.1235615979122459</v>
+      </c>
+      <c r="F58">
+        <v>-0.02485182114318491</v>
+      </c>
+      <c r="G58">
+        <v>-0.09980181807655597</v>
+      </c>
+      <c r="H58">
+        <v>-0.1470801359641124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1214937583306902</v>
+        <v>-0.1461730516636839</v>
       </c>
       <c r="C59">
-        <v>-0.07523998659366961</v>
+        <v>0.1171973232261566</v>
       </c>
       <c r="D59">
-        <v>0.395266747824719</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3536431304240973</v>
+      </c>
+      <c r="E59">
+        <v>0.03363346324847623</v>
+      </c>
+      <c r="F59">
+        <v>-0.002518396543662082</v>
+      </c>
+      <c r="G59">
+        <v>-0.004862147670393983</v>
+      </c>
+      <c r="H59">
+        <v>0.01111179332323111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2093435695405057</v>
+        <v>-0.2392567636229903</v>
       </c>
       <c r="C60">
-        <v>-0.08823740835783218</v>
+        <v>0.05593857370286175</v>
       </c>
       <c r="D60">
-        <v>-0.01488058084759609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04531253350226534</v>
+      </c>
+      <c r="E60">
+        <v>-0.1163198554128331</v>
+      </c>
+      <c r="F60">
+        <v>-0.04795949239166657</v>
+      </c>
+      <c r="G60">
+        <v>-0.03584213566135865</v>
+      </c>
+      <c r="H60">
+        <v>-0.1426869028827673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08062816831339445</v>
+        <v>-0.08602457127225489</v>
       </c>
       <c r="C61">
-        <v>-0.04421958771280796</v>
+        <v>0.02644195499548725</v>
       </c>
       <c r="D61">
-        <v>-0.03429053363171521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0443236220446336</v>
+      </c>
+      <c r="E61">
+        <v>0.006155073782169207</v>
+      </c>
+      <c r="F61">
+        <v>-0.005459695104011278</v>
+      </c>
+      <c r="G61">
+        <v>0.03143713385352184</v>
+      </c>
+      <c r="H61">
+        <v>0.06014970263562555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1331547812027177</v>
+        <v>-0.1363749642523374</v>
       </c>
       <c r="C62">
-        <v>-0.0582932759555302</v>
+        <v>0.0277630920629344</v>
       </c>
       <c r="D62">
-        <v>-0.001607196503859295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04378024202517886</v>
+      </c>
+      <c r="E62">
+        <v>-0.04830194992461628</v>
+      </c>
+      <c r="F62">
+        <v>0.00591963508998583</v>
+      </c>
+      <c r="G62">
+        <v>0.06531408392172892</v>
+      </c>
+      <c r="H62">
+        <v>0.1959123003410606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05295411135406301</v>
+        <v>-0.05177109898011927</v>
       </c>
       <c r="C63">
-        <v>-0.02609077172029383</v>
+        <v>0.01540426113855349</v>
       </c>
       <c r="D63">
-        <v>-0.02232129759902982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02069826713155825</v>
+      </c>
+      <c r="E63">
+        <v>0.04580771961912739</v>
+      </c>
+      <c r="F63">
+        <v>0.003723000039486646</v>
+      </c>
+      <c r="G63">
+        <v>0.02687659594805976</v>
+      </c>
+      <c r="H63">
+        <v>0.03512588644910437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1054350044181858</v>
+        <v>-0.1088075956664535</v>
       </c>
       <c r="C64">
-        <v>-0.03307505665973701</v>
+        <v>0.01557257376188315</v>
       </c>
       <c r="D64">
-        <v>-0.02366461486403584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02887348741275289</v>
+      </c>
+      <c r="E64">
+        <v>0.03605187889744323</v>
+      </c>
+      <c r="F64">
+        <v>-0.04301513410613724</v>
+      </c>
+      <c r="G64">
+        <v>0.06196259157943419</v>
+      </c>
+      <c r="H64">
+        <v>0.02416520956343458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1267749852185152</v>
+        <v>-0.1285941294518094</v>
       </c>
       <c r="C65">
-        <v>-0.05678010701204936</v>
+        <v>0.03894501280850216</v>
       </c>
       <c r="D65">
-        <v>-0.009724257113035638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01226207168690911</v>
+      </c>
+      <c r="E65">
+        <v>-0.01170814872328164</v>
+      </c>
+      <c r="F65">
+        <v>-0.04203422283302779</v>
+      </c>
+      <c r="G65">
+        <v>0.05914719647898282</v>
+      </c>
+      <c r="H65">
+        <v>-0.1514693997140916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1493062948709117</v>
+        <v>-0.1524631682192537</v>
       </c>
       <c r="C66">
-        <v>-0.0688477627027021</v>
+        <v>0.0316653151382995</v>
       </c>
       <c r="D66">
-        <v>-0.09699282138724913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1011463851817885</v>
+      </c>
+      <c r="E66">
+        <v>-0.02772525827604766</v>
+      </c>
+      <c r="F66">
+        <v>0.0004856705305670349</v>
+      </c>
+      <c r="G66">
+        <v>0.07230240383731187</v>
+      </c>
+      <c r="H66">
+        <v>0.08404778828992883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07656819498828139</v>
+        <v>-0.08598735846220577</v>
       </c>
       <c r="C67">
-        <v>-0.01123227636401473</v>
+        <v>-0.0003559189335985981</v>
       </c>
       <c r="D67">
-        <v>-0.02084793697582489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03138678026164376</v>
+      </c>
+      <c r="E67">
+        <v>0.02088813599634117</v>
+      </c>
+      <c r="F67">
+        <v>-0.01426007324499054</v>
+      </c>
+      <c r="G67">
+        <v>-0.00974296905465688</v>
+      </c>
+      <c r="H67">
+        <v>0.02134590446531251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0558995932823611</v>
+        <v>-0.06373633896900253</v>
       </c>
       <c r="C68">
-        <v>-0.04941084072548808</v>
+        <v>0.0861050216101832</v>
       </c>
       <c r="D68">
-        <v>0.2603974862528025</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.263333107768127</v>
+      </c>
+      <c r="E68">
+        <v>0.04627771088835162</v>
+      </c>
+      <c r="F68">
+        <v>-0.01612770964993569</v>
+      </c>
+      <c r="G68">
+        <v>0.0007033519459251941</v>
+      </c>
+      <c r="H68">
+        <v>0.01895128568581152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05437639937589382</v>
+        <v>-0.05306782814882303</v>
       </c>
       <c r="C69">
-        <v>-0.01774305987927422</v>
+        <v>0.004177483643013346</v>
       </c>
       <c r="D69">
-        <v>-0.02311893624538852</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01959176740627925</v>
+      </c>
+      <c r="E69">
+        <v>0.02363298598626392</v>
+      </c>
+      <c r="F69">
+        <v>0.01363179524431325</v>
+      </c>
+      <c r="G69">
+        <v>0.001901874588992276</v>
+      </c>
+      <c r="H69">
+        <v>0.04585746532998681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002821724902106112</v>
+        <v>-0.02780216062579438</v>
       </c>
       <c r="C70">
-        <v>0.006305756239577611</v>
+        <v>-0.001438724751057267</v>
       </c>
       <c r="D70">
-        <v>0.01362265637903868</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.008316371031555211</v>
+      </c>
+      <c r="E70">
+        <v>-0.02113538111134596</v>
+      </c>
+      <c r="F70">
+        <v>0.008840452683127697</v>
+      </c>
+      <c r="G70">
+        <v>-0.0260978998909173</v>
+      </c>
+      <c r="H70">
+        <v>-0.03578722708374825</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0552630427817427</v>
+        <v>-0.06939002504705384</v>
       </c>
       <c r="C71">
-        <v>-0.04904475221632688</v>
+        <v>0.09533772640059042</v>
       </c>
       <c r="D71">
-        <v>0.2946514102966609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.291178235098651</v>
+      </c>
+      <c r="E71">
+        <v>0.04413580769513666</v>
+      </c>
+      <c r="F71">
+        <v>-0.04492920001973053</v>
+      </c>
+      <c r="G71">
+        <v>0.005008988793456206</v>
+      </c>
+      <c r="H71">
+        <v>0.01310835913143025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1425729320534989</v>
+        <v>-0.1442177018011056</v>
       </c>
       <c r="C72">
-        <v>-0.06182073137479949</v>
+        <v>0.03362170195275346</v>
       </c>
       <c r="D72">
-        <v>0.005723793344684398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00391531140365337</v>
+      </c>
+      <c r="E72">
+        <v>-0.05110146999453979</v>
+      </c>
+      <c r="F72">
+        <v>0.1566521632012432</v>
+      </c>
+      <c r="G72">
+        <v>0.1164785067241179</v>
+      </c>
+      <c r="H72">
+        <v>-0.007785517512977101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2873873635952415</v>
+        <v>-0.2899008836601019</v>
       </c>
       <c r="C73">
-        <v>-0.09165878466022348</v>
+        <v>0.02167276551833064</v>
       </c>
       <c r="D73">
-        <v>-0.04159571598105103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0944254106090809</v>
+      </c>
+      <c r="E73">
+        <v>-0.257356330435099</v>
+      </c>
+      <c r="F73">
+        <v>-0.07642750917330592</v>
+      </c>
+      <c r="G73">
+        <v>-0.2850181185727688</v>
+      </c>
+      <c r="H73">
+        <v>-0.3845927600530583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08421044104641238</v>
+        <v>-0.09227803976289656</v>
       </c>
       <c r="C74">
-        <v>-0.07426651346713048</v>
+        <v>0.05371676383576412</v>
       </c>
       <c r="D74">
-        <v>-0.004872058387749454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03873785546335191</v>
+      </c>
+      <c r="E74">
+        <v>-0.003600600494771026</v>
+      </c>
+      <c r="F74">
+        <v>-5.155055175438641e-05</v>
+      </c>
+      <c r="G74">
+        <v>-0.01583530192885191</v>
+      </c>
+      <c r="H74">
+        <v>0.133460564690071</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1006519968284966</v>
+        <v>-0.1032990925617234</v>
       </c>
       <c r="C75">
-        <v>-0.04668176080778073</v>
+        <v>0.02046578462003719</v>
       </c>
       <c r="D75">
-        <v>-0.01420564164245196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02525751925700001</v>
+      </c>
+      <c r="E75">
+        <v>-0.0009638274414135102</v>
+      </c>
+      <c r="F75">
+        <v>0.000674068211085629</v>
+      </c>
+      <c r="G75">
+        <v>-0.002232388005267924</v>
+      </c>
+      <c r="H75">
+        <v>0.09730004520812535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1335900608986963</v>
+        <v>-0.1424230038596268</v>
       </c>
       <c r="C76">
-        <v>-0.07704992651108471</v>
+        <v>0.04911847591811407</v>
       </c>
       <c r="D76">
-        <v>-0.02371104767645308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05263466522376933</v>
+      </c>
+      <c r="E76">
+        <v>0.01656812467095874</v>
+      </c>
+      <c r="F76">
+        <v>-0.03349653761956426</v>
+      </c>
+      <c r="G76">
+        <v>0.04309377912441198</v>
+      </c>
+      <c r="H76">
+        <v>0.2174839515115119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1194104947304714</v>
+        <v>-0.1033264070201051</v>
       </c>
       <c r="C77">
-        <v>-0.02440644895041763</v>
+        <v>-0.009802933481280489</v>
       </c>
       <c r="D77">
-        <v>-0.07990026667640689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04055376962355661</v>
+      </c>
+      <c r="E77">
+        <v>0.04652041929111564</v>
+      </c>
+      <c r="F77">
+        <v>-0.06059099481535727</v>
+      </c>
+      <c r="G77">
+        <v>0.7700611372993506</v>
+      </c>
+      <c r="H77">
+        <v>-0.4080585724873824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1075675475052932</v>
+        <v>-0.1518590188414421</v>
       </c>
       <c r="C78">
-        <v>-0.03819949058729535</v>
+        <v>0.03190916324821785</v>
       </c>
       <c r="D78">
-        <v>-0.09345069515697486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08139191043048129</v>
+      </c>
+      <c r="E78">
+        <v>0.05157600556053203</v>
+      </c>
+      <c r="F78">
+        <v>-0.05742252894310765</v>
+      </c>
+      <c r="G78">
+        <v>0.04468077573232641</v>
+      </c>
+      <c r="H78">
+        <v>-0.07226328730179014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1466144043377893</v>
+        <v>-0.1472612939865871</v>
       </c>
       <c r="C79">
-        <v>-0.06622264603781677</v>
+        <v>0.03146155751584603</v>
       </c>
       <c r="D79">
-        <v>-0.02189141829970918</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0400796711642494</v>
+      </c>
+      <c r="E79">
+        <v>-0.01586552105087682</v>
+      </c>
+      <c r="F79">
+        <v>-0.01908950802967674</v>
+      </c>
+      <c r="G79">
+        <v>0.03827833103173225</v>
+      </c>
+      <c r="H79">
+        <v>0.1548778199257257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0414616071271604</v>
+        <v>-0.0422722051895012</v>
       </c>
       <c r="C80">
-        <v>-0.01903519509446074</v>
+        <v>0.01103906864463163</v>
       </c>
       <c r="D80">
-        <v>-0.03246879522927425</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01538628372093059</v>
+      </c>
+      <c r="E80">
+        <v>-0.03907271567104389</v>
+      </c>
+      <c r="F80">
+        <v>-0.002543576440920397</v>
+      </c>
+      <c r="G80">
+        <v>-0.01843566146124553</v>
+      </c>
+      <c r="H80">
+        <v>0.04272820764178491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1240182145341556</v>
+        <v>-0.1261105644228005</v>
       </c>
       <c r="C81">
-        <v>-0.05787818943526896</v>
+        <v>0.031483737135754</v>
       </c>
       <c r="D81">
-        <v>-0.02542493713048213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02863087153761915</v>
+      </c>
+      <c r="E81">
+        <v>0.008464849791007652</v>
+      </c>
+      <c r="F81">
+        <v>-0.01391970436220539</v>
+      </c>
+      <c r="G81">
+        <v>-0.003611414003395065</v>
+      </c>
+      <c r="H81">
+        <v>0.1456085675234329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1327884031739544</v>
+        <v>-0.1299459219359883</v>
       </c>
       <c r="C82">
-        <v>-0.06446705609838611</v>
+        <v>0.03556572046161547</v>
       </c>
       <c r="D82">
-        <v>-0.005396977130658728</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03762521545114999</v>
+      </c>
+      <c r="E82">
+        <v>-0.02095005364101504</v>
+      </c>
+      <c r="F82">
+        <v>-0.04290811151515524</v>
+      </c>
+      <c r="G82">
+        <v>0.02446036816417315</v>
+      </c>
+      <c r="H82">
+        <v>0.2147104434562064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06547045126009889</v>
+        <v>-0.08038759288630719</v>
       </c>
       <c r="C83">
-        <v>0.02639260313716366</v>
+        <v>-0.03680355809766964</v>
       </c>
       <c r="D83">
-        <v>-0.0161228386020153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01722808726146852</v>
+      </c>
+      <c r="E83">
+        <v>0.02361692374134601</v>
+      </c>
+      <c r="F83">
+        <v>-0.03011435550368878</v>
+      </c>
+      <c r="G83">
+        <v>-0.04327811076257392</v>
+      </c>
+      <c r="H83">
+        <v>-0.0316142442169073</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02829689765926955</v>
+        <v>-0.03463599719163038</v>
       </c>
       <c r="C84">
-        <v>-0.02714966006017977</v>
+        <v>0.01666261570557287</v>
       </c>
       <c r="D84">
-        <v>-0.03602805561342581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03908094362475402</v>
+      </c>
+      <c r="E84">
+        <v>0.01917361108532107</v>
+      </c>
+      <c r="F84">
+        <v>0.03854962845169926</v>
+      </c>
+      <c r="G84">
+        <v>-0.03509611346285175</v>
+      </c>
+      <c r="H84">
+        <v>0.0372078166551725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.118742564041028</v>
+        <v>-0.1221865207116448</v>
       </c>
       <c r="C85">
-        <v>-0.03827032272148537</v>
+        <v>0.01355596817655624</v>
       </c>
       <c r="D85">
-        <v>-0.05113932304189065</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03914497858572522</v>
+      </c>
+      <c r="E85">
+        <v>0.01705551359881443</v>
+      </c>
+      <c r="F85">
+        <v>-0.03417281947866167</v>
+      </c>
+      <c r="G85">
+        <v>-0.001446479725292032</v>
+      </c>
+      <c r="H85">
+        <v>0.1441471186310629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05259006604617048</v>
+        <v>-0.05646942962007875</v>
       </c>
       <c r="C86">
-        <v>-0.02355688445054476</v>
+        <v>0.009102105156945546</v>
       </c>
       <c r="D86">
-        <v>-0.06021953227497626</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03628527086559189</v>
+      </c>
+      <c r="E86">
+        <v>0.03867211547606863</v>
+      </c>
+      <c r="F86">
+        <v>-0.02200538085521406</v>
+      </c>
+      <c r="G86">
+        <v>-0.04636968963914573</v>
+      </c>
+      <c r="H86">
+        <v>-0.038675035404823</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1227869306921021</v>
+        <v>-0.125224297126802</v>
       </c>
       <c r="C87">
-        <v>-0.06935514226643696</v>
+        <v>0.03213163126980925</v>
       </c>
       <c r="D87">
-        <v>-0.06981212909924281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06944680410623495</v>
+      </c>
+      <c r="E87">
+        <v>0.01799801053112181</v>
+      </c>
+      <c r="F87">
+        <v>-0.01857282258780193</v>
+      </c>
+      <c r="G87">
+        <v>0.1466739034715231</v>
+      </c>
+      <c r="H87">
+        <v>-0.08576347912198035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05409048964676474</v>
+        <v>-0.06265756951866883</v>
       </c>
       <c r="C88">
-        <v>-0.03009243876252558</v>
+        <v>0.01905372349639088</v>
       </c>
       <c r="D88">
-        <v>-0.02434020342214894</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03857347690970075</v>
+      </c>
+      <c r="E88">
+        <v>0.007912888359442972</v>
+      </c>
+      <c r="F88">
+        <v>-0.01942258658621253</v>
+      </c>
+      <c r="G88">
+        <v>0.01622924567281677</v>
+      </c>
+      <c r="H88">
+        <v>0.04068660394890875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08553826596548618</v>
+        <v>-0.1068215278035614</v>
       </c>
       <c r="C89">
-        <v>-0.07111929499931062</v>
+        <v>0.122375576436115</v>
       </c>
       <c r="D89">
-        <v>0.3211866917893811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3387486023548614</v>
+      </c>
+      <c r="E89">
+        <v>0.06459822876879272</v>
+      </c>
+      <c r="F89">
+        <v>-0.07359745482494189</v>
+      </c>
+      <c r="G89">
+        <v>-0.02022981636630307</v>
+      </c>
+      <c r="H89">
+        <v>0.01949756455808729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06688711373207494</v>
+        <v>-0.08348145960310245</v>
       </c>
       <c r="C90">
-        <v>-0.05749031741792725</v>
+        <v>0.09851479718809326</v>
       </c>
       <c r="D90">
-        <v>0.2823969573752141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2803846807436145</v>
+      </c>
+      <c r="E90">
+        <v>0.0500650139629519</v>
+      </c>
+      <c r="F90">
+        <v>-0.03190339752633031</v>
+      </c>
+      <c r="G90">
+        <v>0.02725318358609263</v>
+      </c>
+      <c r="H90">
+        <v>-0.01156482184333223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0899474019513265</v>
+        <v>-0.09078631143375321</v>
       </c>
       <c r="C91">
-        <v>-0.04927518680782341</v>
+        <v>0.02484582631188093</v>
       </c>
       <c r="D91">
-        <v>-0.01300767899738882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03259568895202749</v>
+      </c>
+      <c r="E91">
+        <v>0.00825730395734665</v>
+      </c>
+      <c r="F91">
+        <v>-0.0004874007130651376</v>
+      </c>
+      <c r="G91">
+        <v>-0.0174164676195182</v>
+      </c>
+      <c r="H91">
+        <v>0.08981805994792745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06929408826325423</v>
+        <v>-0.08406137918105785</v>
       </c>
       <c r="C92">
-        <v>-0.0654110664251545</v>
+        <v>0.1140431606760633</v>
       </c>
       <c r="D92">
-        <v>0.3348406735240179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.32892785360294</v>
+      </c>
+      <c r="E92">
+        <v>0.05141113271684447</v>
+      </c>
+      <c r="F92">
+        <v>-0.03678808914047654</v>
+      </c>
+      <c r="G92">
+        <v>0.000161527485381341</v>
+      </c>
+      <c r="H92">
+        <v>0.01870419052001011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06192059836573591</v>
+        <v>-0.0811588193287008</v>
       </c>
       <c r="C93">
-        <v>-0.06401649339866072</v>
+        <v>0.1116845607458197</v>
       </c>
       <c r="D93">
-        <v>0.3036278122016042</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2964170260136723</v>
+      </c>
+      <c r="E93">
+        <v>0.02699069947766219</v>
+      </c>
+      <c r="F93">
+        <v>-0.02882808591403863</v>
+      </c>
+      <c r="G93">
+        <v>0.01676319434837881</v>
+      </c>
+      <c r="H93">
+        <v>0.003366844515928475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1345347555264416</v>
+        <v>-0.1290854114347846</v>
       </c>
       <c r="C94">
-        <v>-0.04056203389232551</v>
+        <v>0.006214401678340856</v>
       </c>
       <c r="D94">
-        <v>-0.04356123968342667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04899693159770371</v>
+      </c>
+      <c r="E94">
+        <v>-0.01970526124409384</v>
+      </c>
+      <c r="F94">
+        <v>-0.01549466470115368</v>
+      </c>
+      <c r="G94">
+        <v>-0.03187984023648364</v>
+      </c>
+      <c r="H94">
+        <v>0.1095628967873202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1215662517711553</v>
+        <v>-0.1293270142379226</v>
       </c>
       <c r="C95">
-        <v>-0.01676342601639716</v>
+        <v>-0.00989105037968669</v>
       </c>
       <c r="D95">
-        <v>-0.05410318550780072</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05751119526734682</v>
+      </c>
+      <c r="E95">
+        <v>0.006008875291612744</v>
+      </c>
+      <c r="F95">
+        <v>-0.04933954973521572</v>
+      </c>
+      <c r="G95">
+        <v>0.02244561856064307</v>
+      </c>
+      <c r="H95">
+        <v>-0.09814651451094865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2198310097620721</v>
+        <v>-0.1951962585017771</v>
       </c>
       <c r="C97">
-        <v>-0.03540526992631721</v>
+        <v>-0.01482947765982855</v>
       </c>
       <c r="D97">
-        <v>0.09226082234184071</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06807659623149177</v>
+      </c>
+      <c r="E97">
+        <v>-0.06542667674604312</v>
+      </c>
+      <c r="F97">
+        <v>0.9361024194834997</v>
+      </c>
+      <c r="G97">
+        <v>0.04557369632780166</v>
+      </c>
+      <c r="H97">
+        <v>-0.01983056819952337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.243779813901444</v>
+        <v>-0.2738444674670488</v>
       </c>
       <c r="C98">
-        <v>-0.04991188984424359</v>
+        <v>0.009640389442352088</v>
       </c>
       <c r="D98">
-        <v>-0.01531807571195023</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04408032454408296</v>
+      </c>
+      <c r="E98">
+        <v>-0.196406609394888</v>
+      </c>
+      <c r="F98">
+        <v>-0.03809196235409143</v>
+      </c>
+      <c r="G98">
+        <v>-0.3374025469581962</v>
+      </c>
+      <c r="H98">
+        <v>-0.1714219431405712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3984412145264155</v>
+        <v>-0.2576991647318068</v>
       </c>
       <c r="C99">
-        <v>0.8983880665791932</v>
+        <v>-0.9204277740562214</v>
       </c>
       <c r="D99">
-        <v>0.05821670321215832</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2231783139971274</v>
+      </c>
+      <c r="E99">
+        <v>0.06982441823341928</v>
+      </c>
+      <c r="F99">
+        <v>-0.07893362905139348</v>
+      </c>
+      <c r="G99">
+        <v>0.02117219207023219</v>
+      </c>
+      <c r="H99">
+        <v>0.0733320662361652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0453056859945576</v>
+        <v>-0.04744072361682322</v>
       </c>
       <c r="C101">
-        <v>-0.03143534951663287</v>
+        <v>0.02321586796763358</v>
       </c>
       <c r="D101">
-        <v>-0.002854015984015236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01307070382706855</v>
+      </c>
+      <c r="E101">
+        <v>0.05778396463775595</v>
+      </c>
+      <c r="F101">
+        <v>-0.01289934522392283</v>
+      </c>
+      <c r="G101">
+        <v>0.01013918833386128</v>
+      </c>
+      <c r="H101">
+        <v>0.06876760021995718</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
